--- a/src/test/java/Resources/Data/Words.xlsx
+++ b/src/test/java/Resources/Data/Words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/isthmus-AKC-Test/src/test/java/Resources/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/isthmus-AKC-Test 2/src/test/java/Resources/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1978B384-F355-5843-B7B5-7F77958D2CCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917EABCD-7405-044F-9651-619C1D7EB62B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>word</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>terrier</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;alert(‘XSS’)&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -87,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -387,17 +391,22 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>

--- a/src/test/java/Resources/Data/Words.xlsx
+++ b/src/test/java/Resources/Data/Words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/isthmus-AKC-Test 2/src/test/java/Resources/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917EABCD-7405-044F-9651-619C1D7EB62B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E45FEC3-3D3F-6949-9238-52F9D1E2FCC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <t>terrier</t>
   </si>
   <si>
-    <t>&lt;script&gt;alert(‘XSS’)&lt;/script&gt;</t>
+    <t>beagle</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
